--- a/DOM_Banner/output/dept0713/Franz Rischard_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Franz Rischard_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Inova Fairfax Hospital, 23146, Advanced Lung Disease and Transplant Program, Falls Church, Virginia, United States; Cedars Sinai Medical Center, Medicine - Pulmonary, Beverely Hills, California, United States; Department of Pulmonary and Critical Care Medicine, College of Medicine, University of Cincinnati, Cincinnati, Ohio;; University of Arizona, Division of Pulmonary and Critical Care Medicine, Tuscon, Arizona, United States.; Pulmonary Medicine, Cleveland Clinic, Cleveland, Ohio;; Cardiology Section, University of California Los Angeles David Geffen School of Medicine, Los Angeles, California;; Division of Pulmonary Critical Care, VA Greater Los Angeles Healthcare System;; United Therapeutics Corporation, Research Triangle Park, North Carolina; and; United Therapeutics Corporation, Research Triangle Park, North Carolina; and; United Therapeutics Corporation, Research Triangle Park, North Carolina; and; Brigham and Women's Hospital, 1861, Pulmonary and Critical Care , Boston, Massachusetts, United States.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3213565503</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Efficacy of Inhaled Treprostinil on Multiple Disease Progression Events in Patients with Pulmonary Hypertension due to Parenchymal Lung Disease in the INCREASE Trial</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202107-1766oc</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34767495</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202107-1766oc</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, Tennessee, USA; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Division of Cardiology, Wayne State University, Detroit, Michigan, USA; Department of Medicine, Indiana University School of Medicine, Indianapolis, Indiana, USA; Department of Quantitative Health Sciences, Cleveland Clinic, Cleveland, Ohio, USA; Department of Pediatrics and Medicine, Columbia University, New York, New York, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Pediatrics, Columbia University, New York, New York, USA; Department of Inflammation and Immunity, Cleveland Clinic, Cleveland, Ohio, USA; Department of Medicine, Indiana University School of Medicine, Indianapolis, Indiana, USA; Department of Pulmonary and Critical Care Medicine, Mayo Clinic, Rochester, Minnesota, USA; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Pittsburgh, Pittsburgh, Pennsylvania, USA; Department of Cardiology, The University of Sydney, Sydney, New South Wales, Australia; Department of Environmental Medicine, New York University Grossman School of Medicine, New York, New York, USA; ; ; ; Department of Pediatrics, Columbia University, New York, New York, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4290720543</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Clinical Characteristics and Transplant-Free Survival Across the Spectrum of Pulmonary Vascular Disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacc.2022.05.038</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35953136</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacc.2022.05.038</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Cardiology, Heart Center at the University of Cologne, and Cologne Cardiovascular Research Center, University of Cologne, Germany.; Arizona Pulmonary Specialists, Phoenix, AZ, USA; Division of Cardiovascular Medicine, University of Michigan Health System, Ann Arbor, MI, USA; University of Arizona, Tucson, AZ, USA; Dept of Internal Medicine II, Pulmonology, University Medical Center Regensburg, Germany; University of Rochester Medical Center, Rochester, NY, USA; Scottish Pulmonary Vascular Unit, Regional Heart &amp; Lung Centre, Glasgow, UK; Department of Cardiology, Heart Center at the University of Cologne, and Cologne Cardiovascular Research Center, University of Cologne, Germany; Gilead Sciences, Foster City, CA, USA; Gilead Sciences, Foster City, CA, USA; Gilead Sciences, Foster City, CA, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3195511407</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Selonsertib in adults with pulmonary arterial hypertension (ARROW): a randomised, double-blind, placebo-controlled, phase 2 trial</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Lancet Respiratory Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00032-1</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34425071</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00032-1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular and Respiratory Sciences - Sapienza University of Rome, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Department of Cardiology, Hammersmith Hospital, Imperial College Health Care NHS Trust, London, UK; Department of Cardiology, Hammersmith Hospital, Imperial College Health Care NHS Trust, London, UK; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Public Health and Infectious Diseases, Sapienza University of Rome, Rome, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Translational and Regenerative Medicine, University of Arizona, Tucson, Arizona; Respiratory Unit, ASST Santi Paolo e Carlo, San Paolo Hospital, Department of Health, Sciences, University of Milan, Milan, Italy; Respiratory Unit, ASST Santi Paolo e Carlo, San Paolo Hospital, Department of Health, Sciences, University of Milan, Milan, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220844490</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Incremental value of cardiopulmonary exercise testing in intermediate-risk pulmonary arterial hypertension</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The Journal of Heart and Lung Transplantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.02.021</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35414469</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.02.021</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona Tucson AZ; Department of Bioengineering and Cardiology, UC Denver Medical Campus, Denver, CO; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ; BIO5 Institute, Center of Biostatistics and Informatics, University of Arizona, Tucson, AZ; Division of Cardiology, Department of Medicine, Medical University of South Carolina, Charleston, SC; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3207081941</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>The Right Ventricular-Pulmonary Arterial Coupling and Diastolic Function Response to Therapy in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.09.040</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34637777</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.09.040</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223600023</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cytokine profiling in pulmonary arterial hypertension: the role of redox homeostasis and sex</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Translational Research</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.03.013</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35405322</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.trsl.2022.03.013</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225309819</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Oxygen Utilization as a Primary Mediator of Age-Related Functional Decline in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,14 +999,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225320154</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,14 +1086,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Medicine, University of Arizona, Tucson, AZ, United States; Division of Cardiology, University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225321648</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Phenotypic Heterogeneity in WSPH Group 1 PAH Is Explained by Differences in Peripheral Oxygen Extraction</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,14 +1173,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">University of Sheffield; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309961438</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Author Correction: Biological heterogeneity in idiopathic pulmonary arterial hypertension identified through unsupervised transcriptomic profiling of whole blood</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-33381-y</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36433938</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-33381-y</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795756</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Franz Rischard_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Franz Rischard_2022.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Steven D. Nathan, Victor F. Tapson, Jean M. Elwing, Franz Rischard, J.P. Mehta, Shelley Shapiro, Eric Shen, Chunqin Deng, Peter Smith, Aaron B. Waxman</t>
+          <t>Steven D. Nathan, Victor F. Tapson, Jean Elwing, Franz Rischard, J.P. Mehta, Shelley Shapiro, Eric Shen, Chunqin Deng, Peter Smith, Aaron B. Waxman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cole Uhland, Michael Insel, Steven Stroud, Saad Kubba, Franz Rischard</t>
+          <t>George Khludenev, Iniya Rajendran, Ramzi Ibrahim, Tushar Acharya, Kwan S. Lee, Michel Corban, Michael Insel, Michael D. Seckeler, Franz Rischard, Saad Kubba</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225309819</t>
+          <t>https://openalex.org/W4380795756</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oxygen Utilization as a Primary Mediator of Age-Related Functional Decline in Pulmonary Arterial Hypertension</t>
+          <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
+          <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
+          <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,22 +1056,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>N. Habib, Nehan Sher, A. Tandon, Saad Kubba, Michael Insel, Arka Chatterjee, Michael D. Seckeler, Franz Rischard</t>
+          <t>Cole Uhland, Michael Insel, Steven Stroud, Saad Kubba, Franz Rischard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+          <t>Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225320154</t>
+          <t>https://openalex.org/W4225309819</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
+          <t>Oxygen Utilization as a Primary Mediator of Age-Related Functional Decline in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,22 +1143,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michael Insel, Cole Uhland, Steven Stroud, Franz Rischard</t>
+          <t>N. Habib, Nehan Sher, A. Tandon, Saad Kubba, Michael Insel, Arka Chatterjee, Michael D. Seckeler, Franz Rischard</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Medicine, University of Arizona, Tucson, AZ, United States; Division of Cardiology, University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225321648</t>
+          <t>https://openalex.org/W4225320154</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Phenotypic Heterogeneity in WSPH Group 1 PAH Is Explained by Differences in Peripheral Oxygen Extraction</t>
+          <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,57 +1230,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sokratis Kariotis, Emmanuel Jammeh, Emilia M. Swietlik, Josephine Pickworth, Christopher J. Rhodes, Pablo Otero, John Wharton, James Iremonger, Mark J. Dunning, Divya Pandya, Thomas S. Mascarenhas, Niamh Errington, A. A. Roger Thompson, Casey E. Romanoski, Franz Rischard, Joe G.N. Garcia, Jason X.‐J. Yuan, Tae-Hwi Schwantes An, Ankit A. Desai, Gerry Coghlan, Jim Lordan, Paul A. Corris, Luke Howard, Robin Condliffe, David G. Kiely, Colin Church, Joanna Pepke‐Zaba, Mark Toshner, Stephen J. Wort, Stefan Gräf, Nicholas W. Morrell, Martin R. Wilkins, Allan Lawrie, Dennis Wang, Marta Bleda, Charaka Hadinnapola, Matthias Haimel, Kate Auckland, Tobias Tilly, Jennifer Martin, Katherine P. Yates, Carmen Treacy, Margaret Day, Alan Greenhalgh, Debbie Shipley, Andrew J. Peacock, Val Irvine, Fiona Kennedy, Shahin Moledina, Lynsay MacDonald, Eleni Tamvaki, Anabelle Barnes, Victoria Cookson, Latifa Chentouf, Souad Ali, Shokri Othman, Lavanya Ranganathan, J. Simon R. Gibbs, Rosa DaCosta, Joy Pinguel, Natalie Dormand, Alice C. Parker, Della Stokes, Dipa Ghedia, Yvonne Tze Fung Tan, Tanaka Ngcozana, Ivy Wanjiku, Gary Polwarth, Rob V. Mackenzie Ross, Jay Suntharalingam, Mark L. Grover, Ali Kirby, Ali Grove, Katie White, Annette Seatter, Amanda Creaser-Myers, Sara E. Walker, Stephen Roney, Charles Elliot, Athanasios Charalampopoulos, Ian Sabroe, Abdul Hameed, Iain Armstrong, Neil W. Hamilton, Alexander Rothman, Andrew Swift, Jim M. Wild, Florent Soubrier, Mélanie Eyries, Marc Humbert, David Montani, Barbara Girerd, Laura Scelsi, Stefano Ghio, Henning Gall, Ardi Ghofrani, Harm Jan Bogaard, Anton Vonk Noordegraaf, Arie O. Verkerk, Anna Huis in’t Veld</t>
+          <t>Michael Insel, Cole Uhland, Steven Stroud, Franz Rischard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">University of Sheffield; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Medicine, University of Arizona, Tucson, AZ, United States; Division of Cardiology, University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4309961438</t>
+          <t>https://openalex.org/W4225321648</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Author Correction: Biological heterogeneity in idiopathic pulmonary arterial hypertension identified through unsupervised transcriptomic profiling of whole blood</t>
+          <t>Phenotypic Heterogeneity in WSPH Group 1 PAH Is Explained by Differences in Peripheral Oxygen Extraction</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-022-33381-y</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36433938</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-022-33381-y</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,57 +1317,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>George Khludenev, Iniya Rajendran, Ramzi Ibrahim, Tushar Acharya, Kwan S. Lee, Michel Corban, Michael Insel, Michael D. Seckeler, Franz Rischard, Saad Kubba</t>
+          <t>Sokratis Kariotis, Emmanuel Jammeh, Emilia M. Swietlik, Josephine Pickworth, Christopher J. Rhodes, Pablo Otero, John Wharton, James Iremonger, Mark J. Dunning, Divya Pandya, Thomas S. Mascarenhas, Niamh Errington, A. A. Roger Thompson, Casey E. Romanoski, Franz Rischard, Joe G.N. Garcia, Jason X.‐J. Yuan, Tae-Hwi Schwantes An, Ankit A. Desai, Gerry Coghlan, Jim Lordan, Paul A. Corris, Luke Howard, Robin Condliffe, David G. Kiely, Colin Church, Joanna Pepke-Żaba, Mark Toshner, Stephen J. Wort, Stefan Gräf, Nicholas W. Morrell, Martin R. Wilkins, Allan Lawrie, Dennis Wang, Marta Bleda, Charaka Hadinnapola, Matthias Haimel, Kate Auckland, Tobias Tilly, Jennifer Martin, Katherine P. Yates, Carmen Treacy, Margaret Day, Alan Greenhalgh, Debbie Shipley, Andrew J. Peacock, Val Irvine, Fiona Kennedy, Shahin Moledina, Lynsay MacDonald, Eleni Tamvaki, Anabelle Barnes, Victoria Cookson, Latifa Chentouf, Souad Ali, Shokri Othman, Lavanya Ranganathan, J. Simon R. Gibbs, Rosa DaCosta, Joy Pinguel, Natalie Dormand, Alice C. Parker, Della Stokes, Dipa Ghedia, Yvonne Tze Fung Tan, Tanaka Ngcozana, Ivy Wanjiku, Gary Polwarth, Rob V. Mackenzie Ross, Jay Suntharalingam, Mark L. Grover, Ali Kirby, Ali Grove, Katie White, Annette Seatter, Amanda Creaser-Myers, Sara E. Walker, Stephen Roney, Charles Elliot, Athanasios Charalampopoulos, Ian Sabroe, Abdul Hameed, Iain Armstrong, Neil W. Hamilton, Alexander Rothman, Andrew Swift, Jim M. Wild, Florent Soubrier, Mélanie Eyries, Marc Humbert, David Montani, Barbara Girerd, Laura Scelsi, Stefano Ghio, Henning Gall, Ardi Ghofrani, Harm Jan Bogaard, Anton Vonk Noordegraaf, Arie O. Verkerk, Anna Huis in’t Veld</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
+          <t xml:space="preserve">University of Sheffield; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380795756</t>
+          <t>https://openalex.org/W4309961438</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
+          <t>Author Correction: Biological heterogeneity in idiopathic pulmonary arterial hypertension identified through unsupervised transcriptomic profiling of whole blood</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
+          <t>https://doi.org/10.1038/s41467-022-33381-y</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36433938</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
+          <t>https://doi.org/10.1038/s41467-022-33381-y</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
